--- a/TestData/sitename.xlsx
+++ b/TestData/sitename.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumSetup\Project\SyngentaProject\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Soniya\SyngentaProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>https://www.syngenta.fr/</t>
   </si>
@@ -191,88 +191,142 @@
     <t>https://macedonia.syngenta.com</t>
   </si>
   <si>
+    <t>https://www.syngenta.com.eg</t>
+  </si>
+  <si>
+    <t>https://www.greencast.com.au</t>
+  </si>
+  <si>
+    <t>https://www.greencast.se</t>
+  </si>
+  <si>
+    <t>https://www.syngenta.pt</t>
+  </si>
+  <si>
+    <t>https://www.syngenta.cl</t>
+  </si>
+  <si>
+    <t>https://www.syngenta.by</t>
+  </si>
+  <si>
+    <t>https://www.greencast.kr</t>
+  </si>
+  <si>
+    <t>https://www.pensionskasse-syngenta.ch</t>
+  </si>
+  <si>
+    <t>https://www.nucoffee.com/</t>
+  </si>
+  <si>
+    <t>https://www.kumato.com</t>
+  </si>
+  <si>
+    <t>https://www.syngentappm.com</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.eu</t>
+  </si>
+  <si>
+    <t>https://www.greencast.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.greencast.co.za/</t>
+  </si>
+  <si>
+    <t>https://www.syngentafoundation.org</t>
+  </si>
+  <si>
+    <t>https://www.koipesolsemillas.es/</t>
+  </si>
+  <si>
+    <t>https://www.elosua.es</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers-us.com</t>
+  </si>
+  <si>
+    <t>https://www.syngenta.lv</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.it</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.es</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.se</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.fr/</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.de</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.nl</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.pl</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.eu/</t>
+  </si>
+  <si>
+    <t>https://www.syngentappm.jp</t>
+  </si>
+  <si>
+    <t>https://www.syngentappm.cn</t>
+  </si>
+  <si>
+    <t>https://www.syngentappm.com.mx</t>
+  </si>
+  <si>
+    <t>https://www.traitability.com</t>
+  </si>
+  <si>
+    <t>https://www.syngentaornamentales.co</t>
+  </si>
+  <si>
+    <t>https://www.syngenta.ir</t>
+  </si>
+  <si>
+    <t>https://www.syngentappm.com.br</t>
+  </si>
+  <si>
+    <t>https://www.syngentaturf.sg</t>
+  </si>
+  <si>
+    <t>https://www.syngenta-ecometrics-reports.com</t>
+  </si>
+  <si>
+    <t>https://www.zeraim.es</t>
+  </si>
+  <si>
+    <t>https://www.greencast.ae</t>
+  </si>
+  <si>
+    <t>https://www.zeraim.com</t>
+  </si>
+  <si>
+    <t>https://www.greencastonline.jp</t>
+  </si>
+  <si>
+    <t>https://www.syngenta.com.py</t>
+  </si>
+  <si>
+    <t>https://www.syngentappm.com.au</t>
+  </si>
+  <si>
+    <t>https://www.syngentaseedcare.com</t>
+  </si>
+  <si>
     <t>https://www.floriproservices.com</t>
   </si>
   <si>
-    <t>https://www.syngenta.com.eg</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.it</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.es</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.se</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.co.uk</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.fr/</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.de</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.nl</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.pl</t>
-  </si>
-  <si>
-    <t>https://www.greencast.com.au</t>
-  </si>
-  <si>
-    <t>https://www.greencast.se</t>
-  </si>
-  <si>
-    <t>https://www.syngenta.pt</t>
-  </si>
-  <si>
-    <t>https://www.syngenta.cl</t>
-  </si>
-  <si>
-    <t>https://www.syngenta.by</t>
-  </si>
-  <si>
-    <t>https://www.greencast.kr</t>
-  </si>
-  <si>
-    <t>https://www.pensionskasse-syngenta.ch</t>
-  </si>
-  <si>
-    <t>https://www.nucoffee.com/</t>
-  </si>
-  <si>
-    <t>https://www.kumato.com</t>
-  </si>
-  <si>
-    <t>https://www.syngentappm.com</t>
-  </si>
-  <si>
-    <t>https://www.syngentaflowers.eu</t>
-  </si>
-  <si>
-    <t>https://www.greencast.co.uk</t>
-  </si>
-  <si>
-    <t>https://www.greencast.co.za/</t>
-  </si>
-  <si>
-    <t>https://www.syngentafoundation.org</t>
-  </si>
-  <si>
-    <t>https://www.koipesolsemillas.es/</t>
-  </si>
-  <si>
-    <t>https://www.elosua.es</t>
-  </si>
-  <si>
-    <t>https://www.syngentaflowers-us.com</t>
-  </si>
-  <si>
-    <t>https://www.syngenta.lv</t>
+    <t>https://www.syngenta-pro.fr</t>
   </si>
 </sst>
 </file>
@@ -344,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -355,6 +409,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -636,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A83"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,143 +981,233 @@
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>55</v>
+      <c r="A56" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>57</v>
+      <c r="A58" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>58</v>
+      <c r="A59" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>59</v>
+      <c r="A60" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>60</v>
+      <c r="A61" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>61</v>
+      <c r="A62" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>62</v>
+      <c r="A63" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>63</v>
+      <c r="A64" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>64</v>
+      <c r="A65" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1069,6 +1217,33 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A43" r:id="rId4"/>
     <hyperlink ref="A23" r:id="rId5"/>
+    <hyperlink ref="A58" r:id="rId6"/>
+    <hyperlink ref="A59" r:id="rId7"/>
+    <hyperlink ref="A60" r:id="rId8"/>
+    <hyperlink ref="A61" r:id="rId9"/>
+    <hyperlink ref="A62" r:id="rId10"/>
+    <hyperlink ref="A63" r:id="rId11"/>
+    <hyperlink ref="A64" r:id="rId12"/>
+    <hyperlink ref="A65" r:id="rId13"/>
+    <hyperlink ref="A56" r:id="rId14"/>
+    <hyperlink ref="A84" r:id="rId15"/>
+    <hyperlink ref="A85" r:id="rId16"/>
+    <hyperlink ref="A86" r:id="rId17"/>
+    <hyperlink ref="A87" r:id="rId18"/>
+    <hyperlink ref="A88" r:id="rId19"/>
+    <hyperlink ref="A89" r:id="rId20"/>
+    <hyperlink ref="A90" r:id="rId21"/>
+    <hyperlink ref="A91" r:id="rId22"/>
+    <hyperlink ref="A92" r:id="rId23"/>
+    <hyperlink ref="A93" r:id="rId24"/>
+    <hyperlink ref="A94" r:id="rId25"/>
+    <hyperlink ref="A95" r:id="rId26"/>
+    <hyperlink ref="A96" r:id="rId27"/>
+    <hyperlink ref="A97" r:id="rId28"/>
+    <hyperlink ref="A98" r:id="rId29"/>
+    <hyperlink ref="A99" r:id="rId30"/>
+    <hyperlink ref="A100" r:id="rId31"/>
+    <hyperlink ref="A101" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
